--- a/app/data/departments/physics.xlsx
+++ b/app/data/departments/physics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lambe\OneDrive\Documents\Courses\2023-2024\Semester 2\COMP3901\FST-Degree-Planner\app\data\departments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193ABBCB-C0A6-46D5-905E-1993833D9073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F705A2A1-BDC7-4FC3-A6B7-918E0F976D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{BDDB11D8-6E81-405C-A60C-97D3B3DCAA39}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BDDB11D8-6E81-405C-A60C-97D3B3DCAA39}"/>
   </bookViews>
   <sheets>
     <sheet name="Courses" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="408">
   <si>
     <t>CODE</t>
   </si>
@@ -3036,6 +3036,117 @@
   <si>
     <t xml:space="preserve">CAPE/A-Level Physics OR 
 PHYS 0411 OR CSEC Physics with CAPE/A-Level Maths or MATH0100, MATH0110 </t>
+  </si>
+  <si>
+    <t>ECNG1000</t>
+  </si>
+  <si>
+    <t>Electrical Circuits</t>
+  </si>
+  <si>
+    <t>Syllabus: 
+Introduction to signals and systems
+modeling of electrical systems and devices
+network theorems
+nodal and loop analysis
+circuits with reactances
+Transient response
+AC steady state
+phasor analysis of single phase systems
+Evaluation: 
+One 3hr final exam                 90%
+One in-course exam                10%
+Recommended Text:
+Basic Engineering Circuit Analysis by J. David Irwin (Macmillian Publishing)
+Online Resources:
+ECNG 1000 myelearning portal: Problem sets, course information and past papers.</t>
+  </si>
+  <si>
+    <t>ENGR1000</t>
+  </si>
+  <si>
+    <t>Introduction to Engineering</t>
+  </si>
+  <si>
+    <t>An introduction to the following: historical development of engineering; formation of the engineer; role and functions of engineers and professional organisations; creative and critical thinking; technical communications; ethics; liability; safety; legal forms of association; contracts; company law; intellectual property; engineering economics and business operations; infrastructure; energy systems and economics, environments and sustainable development; approaches to design.</t>
+  </si>
+  <si>
+    <t>ECNG1012</t>
+  </si>
+  <si>
+    <t>Engineering Science and Technology</t>
+  </si>
+  <si>
+    <t>This is an introductory course in Engineering Science and consists of modules to expose students to the following: the science of materials used in the production of electrical engineering components; an understanding of the mechanics of fluids when driven by electrical machines; the techniques involved in the production of engineering drawings, and the function and utilization of basic mechanical workshop tools and equipment. On the electrical side, students would be taught to use the oscilloscope, meters, power supplies and signal generators, verify network theorems, design simple circuits, and perform computer simulation on these circuits.
+Syllabus: 
+Engineering Science and Technology is a partial-laboratory course and is assessed solely through coursework. This course has five modules: Electrical Labs and Design Project, Science of Materials, Engineering Graphics, Mechanical Workshop Technology and Mechanics of Fluids.
+The Electrical module consists of four laboratory exercises, two of which are computer simulation exercises. These labs would commence in the second week of the semester. This section concludes with an individual design project, which will be used as the basis for the practical examination at the end of the semester.
+The Engineering Graphics module consists of six lecture sessions, six tutorial sessions and six drawing exercises, which are used for  assessment. This module would commence in the first week of the semester and would run for six weeks.
+The Mechanics of Fluids module consists of lectures, tutorial sessions and one laboratory experiment. This module runs for twelve weeks of the semester and is assessed via the incourse exam and the laboratory exercise.
+The Science of Materials module consists of seven lecture sessions and would commence in the seventh week of the semester. This module would be assessed using an in-course quiz.
+The Mechanical Workshop Technology consists of nine workshop sessions and commences in the first week of the semester. These  sessions expose students to the work processes involved in the design and construction of a flat blade screw driver and arc welding, which are assessed. Due to the hands on nature of this module, attendance will also be graded.
+Evaluation: 
+Labs:                                 25%
+Written Incourse Test:    25%
+Practical Incourse Test:  10%
+Other Coursework:         40%
+Learning Objectives: 
+Upon successful completion of ECNG 1012 students will be able to:
+Apply basic laboratory equipment as appropriate to electrical and
+computer engineering practice, understanding their limitations.
+Use a standard simulation tool (Electronic Workbench) to analyse
+the characteristics and behaviour of electrical components and
+sub-systems.
+Plan and realize engineering objectives as an individual and
+approach engineering responsibly, recognizing lab protocol and
+codes of practice.
+Communicate effectively, conveying technical material through a
+variety of media, such as written products, graphics, and oral
+presentations.
+Apply basic scientific principles and technologies of related
+engineering disciplines to electrical and computer engineering
+practice. In particular:
+knowledge of characteristics, properties, structures and
+applications of particular engineering materials
+knowledge and observation of important fluid phenomena
+and the conditions that must be satisfied for application of
+the various equations for estimating quantities needed in
+engineering designs
+knowledge of the principles and concepts of graphic
+communications within the contexts of Civil, Chemical,
+Electrical and Mechanical Technologies.
+knowledge and use of standard Mechanical Engineering
+Workshop equipment.
+Recommended Texts/ Instruments
+Electrical Module
+“Student Reference Manual For Electronic Instrumentation Laboratories”
+by Stanley Wolf and Richard F. M. Smith (Prentice Hall, 1990)
+Engineering Graphics Module
+Highly Recommended Text
+“Engineering Drawing With Worked Examples: Books 1 &amp; 2”
+by F. Pickup and M. A. Parker, Hutchinson
+Other Recommended Texts
+“Drafting for Industry”
+by W.C. Brown, Gooheart-Willcox Co., Illinois, USA
+“Fundamentals of Engineering Drawing”
+by W.J. Luzadder, Prentice Hall, New Jersey, USA
+“Graphics Science and Design”
+by T.E. French and C.J. Vierck, McGraw Hill Book Co., New York, USA.
+Required Drawing Instruments
+• 1 geometry set containing a compass, divider, and protractor
+• 1 ‘T’ square – minimum blade length 75cm
+• Two set squares: 45° and 30°x 60° with 20 cm bases
+• 1 metric ruler – minimum length of 30cm with 1mm divisions
+• 1 set of French curves
+• Pencils: HB medium/ 2H medium hard or mechanical pencils (0.3/0.5mm leads)
+• Drawing pad or 12 sheets of drawing paper (A2 size)
+• Masking tape (to fix position of drawing paper)
+• Sand paper (for sharpening of pencil points)
+• 1 drafting brush or cloth to clean instruments, drawings, desks etc.
+• 1 hand towel (to keep hands dry)
+Mechanics of Fluids Module
+Notes will be made available in advance of each lecture and they should be sufficient to provide a good understanding of the material. The teaching, however, has been mainly fashioned around the textbook Mechanics of Fluids by B. Massey. Several copies exist in the Main Library and can be used for support if required; but, if needed, any sound textbook on introductory fluid mechanics will be sufficient.
+There is an excellent DVD, called Multimedia Fluid Mechanics by G. M. Homsy, which gives a good visual presentation of some of the difficult concepts in the subject. Other interesting internet sources will be mentioned at the delivery of specific topics.</t>
   </si>
 </sst>
 </file>
@@ -3172,7 +3283,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3185,9 +3296,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3564,28 +3672,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D275A69D-D7E9-47F7-8379-534BF58E6294}">
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.88671875" customWidth="1"/>
-    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="72.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.88671875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="15"/>
+    <col min="7" max="7" width="72.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3622,2471 +3732,2581 @@
       <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="5"/>
-    </row>
-    <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="M1" s="13"/>
+    </row>
+    <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="15">
         <v>0</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="15">
         <v>1</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="H2" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" s="16" t="s">
+      <c r="H2" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <v>0</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="15">
         <v>1</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="H3" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J3" s="16" t="s">
+      <c r="H3" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <v>0</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="15">
         <v>2</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="H4" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J4" s="16" t="s">
+      <c r="H4" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="L4" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <v>0</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="15">
         <v>2</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="H5" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J5" s="16" t="s">
+      <c r="H5" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+    <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="D6" s="15">
+        <v>1</v>
+      </c>
+      <c r="E6" s="15">
+        <v>3</v>
+      </c>
+      <c r="F6" s="15">
+        <v>1</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="D7" s="15">
+        <v>1</v>
+      </c>
+      <c r="E7" s="15">
+        <v>3</v>
+      </c>
+      <c r="F7" s="15">
+        <v>1</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="D8" s="15">
+        <v>1</v>
+      </c>
+      <c r="E8" s="15">
+        <v>4</v>
+      </c>
+      <c r="F8" s="15">
+        <v>1</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C10" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D10" s="15">
         <v>1</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E10" s="15">
         <v>3</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F10" s="15">
         <v>2</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G10" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="H6" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J6" s="16" t="s">
+      <c r="H10" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K10" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="L10" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+    <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D11" s="15">
         <v>1</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E11" s="15">
         <v>3</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F11" s="15">
         <v>2</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G11" s="16" t="s">
         <v>397</v>
       </c>
-      <c r="H7" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" s="16" t="s">
+      <c r="H11" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K11" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L7" s="16" t="s">
+      <c r="L11" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+    <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D12" s="15">
         <v>1</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E12" s="15">
         <v>3</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F12" s="15">
         <v>1</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G12" s="16" t="s">
         <v>398</v>
       </c>
-      <c r="H8" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J8" s="16" t="s">
+      <c r="H12" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K12" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L8" s="16" t="s">
+      <c r="L12" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+    <row r="13" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C13" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D13" s="15">
         <v>1</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E13" s="15">
         <v>3</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F13" s="15">
         <v>1</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G13" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="H9" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J9" s="16" t="s">
+      <c r="H13" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="K13" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L9" s="16" t="s">
+      <c r="L13" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+    <row r="14" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C14" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D14" s="15">
         <v>1</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E14" s="15">
         <v>3</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F14" s="15">
         <v>2</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G14" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="H10" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J10" s="16" t="s">
+      <c r="H14" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="K14" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="L14" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+    <row r="15" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C15" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D15" s="15">
         <v>1</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E15" s="15">
         <v>3</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F15" s="15">
         <v>2</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G15" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="H11" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J11" s="16" t="s">
+      <c r="H15" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="K15" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L11" s="16" t="s">
+      <c r="L15" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+    <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
         <v>394</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C16" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D16" s="15">
         <v>2</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E16" s="15">
         <v>3</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F16" s="15">
         <v>2</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G16" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I12" s="16" t="s">
+      <c r="H16" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" s="15" t="s">
         <v>396</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="J16" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="K16" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L12" s="16" t="s">
+      <c r="L16" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+    <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B17" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C17" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D17" s="15">
         <v>2</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E17" s="15">
         <v>3</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F17" s="15">
         <v>1</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G17" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="H13" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J13" s="16" t="s">
+      <c r="H17" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J17" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K13" s="16" t="s">
+      <c r="K17" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L13" s="16" t="s">
+      <c r="L17" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+    <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B18" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C18" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D18" s="15">
         <v>2</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E18" s="15">
         <v>3</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F18" s="15">
         <v>2</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G18" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="H14" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J14" s="16" t="s">
+      <c r="H18" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K14" s="16" t="s">
+      <c r="K18" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L14" s="16" t="s">
+      <c r="L18" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+    <row r="19" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B19" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C19" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D19" s="15">
         <v>2</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E19" s="15">
         <v>3</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F19" s="15">
         <v>2</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G19" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="H15" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J15" s="16" t="s">
+      <c r="H19" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J19" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K15" s="16" t="s">
+      <c r="K19" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L15" s="16" t="s">
+      <c r="L19" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+    <row r="20" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C20" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D20" s="15">
         <v>2</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E20" s="15">
         <v>3</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F20" s="15">
         <v>2</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G20" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="H16" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J16" s="16" t="s">
+      <c r="H20" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J20" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K16" s="16" t="s">
+      <c r="K20" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L16" s="16" t="s">
+      <c r="L20" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+    <row r="21" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B21" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C21" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D21" s="15">
         <v>2</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E21" s="15">
         <v>3</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F21" s="15">
         <v>1</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G21" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="H17" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I17" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J17" s="16" t="s">
+      <c r="H21" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K17" s="16" t="s">
+      <c r="K21" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L17" s="16" t="s">
+      <c r="L21" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+    <row r="22" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B22" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C22" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D22" s="15">
         <v>2</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E22" s="15">
         <v>3</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F22" s="15">
         <v>1</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G22" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="H18" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J18" s="16" t="s">
+      <c r="H22" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J22" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K18" s="16" t="s">
+      <c r="K22" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L18" s="16" t="s">
+      <c r="L22" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
+    <row r="23" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B23" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C23" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D23" s="15">
         <v>2</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E23" s="15">
         <v>3</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F23" s="15">
         <v>2</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G23" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="H19" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J19" s="16" t="s">
+      <c r="H23" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J23" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K19" s="16" t="s">
+      <c r="K23" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L19" s="16" t="s">
+      <c r="L23" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
+    <row r="24" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B24" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C24" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D24" s="15">
         <v>2</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E24" s="15">
         <v>3</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F24" s="15">
         <v>1</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G24" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="H20" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J20" s="16" t="s">
+      <c r="H24" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J24" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K20" s="16" t="s">
+      <c r="K24" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L20" s="16" t="s">
+      <c r="L24" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
+    <row r="25" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B25" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C25" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D25" s="15">
         <v>2</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E25" s="15">
         <v>3</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F25" s="15">
         <v>2</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G25" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="H25" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="I21" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J21" s="16" t="s">
+      <c r="I25" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J25" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K21" s="16" t="s">
+      <c r="K25" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L21" s="16" t="s">
+      <c r="L25" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
+    <row r="26" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C26" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D26" s="15">
         <v>2</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E26" s="15">
         <v>3</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F26" s="15">
         <v>1</v>
       </c>
-      <c r="G22" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J22" s="16" t="s">
+      <c r="G26" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J26" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K22" s="16" t="s">
+      <c r="K26" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L22" s="16" t="s">
+      <c r="L26" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
+    <row r="27" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C27" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D27" s="15">
         <v>2</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E27" s="15">
         <v>3</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F27" s="15">
         <v>2</v>
       </c>
-      <c r="G23" s="17" t="s">
+      <c r="G27" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="H23" s="16" t="s">
+      <c r="H27" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="I23" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J23" s="16" t="s">
+      <c r="I27" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J27" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K23" s="16" t="s">
+      <c r="K27" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L23" s="16" t="s">
+      <c r="L27" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="s">
+    <row r="28" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B28" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C28" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D28" s="15">
         <v>2</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E28" s="15">
         <v>3</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F28" s="15">
         <v>2</v>
       </c>
-      <c r="G24" s="17" t="s">
+      <c r="G28" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="H24" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I24" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J24" s="16" t="s">
+      <c r="H28" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J28" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K24" s="16" t="s">
+      <c r="K28" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L24" s="16" t="s">
+      <c r="L28" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
+    <row r="29" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B29" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16">
+      <c r="D29" s="15">
         <v>2</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E29" s="15">
         <v>3</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F29" s="15">
         <v>1</v>
       </c>
-      <c r="G25" s="17" t="s">
+      <c r="G29" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="H25" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I25" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J25" s="16" t="s">
+      <c r="H29" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J29" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K25" s="16" t="s">
+      <c r="K29" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L25" s="16" t="s">
+      <c r="L29" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="16" t="s">
+    <row r="30" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B30" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C30" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D30" s="15">
         <v>2</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E30" s="15">
         <v>3</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F30" s="15">
         <v>1</v>
       </c>
-      <c r="G26" s="17" t="s">
+      <c r="G30" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="H26" s="17" t="s">
+      <c r="H30" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="I26" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J26" s="16" t="s">
+      <c r="I30" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J30" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K26" s="16" t="s">
+      <c r="K30" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L26" s="16" t="s">
+      <c r="L30" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
+    <row r="31" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B31" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C31" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D31" s="15">
         <v>2</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E31" s="15">
         <v>3</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F31" s="15">
         <v>1</v>
       </c>
-      <c r="G27" s="17" t="s">
+      <c r="G31" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="H27" s="16" t="s">
+      <c r="H31" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="I27" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J27" s="16" t="s">
+      <c r="I31" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J31" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K27" s="16" t="s">
+      <c r="K31" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L27" s="16" t="s">
+      <c r="L31" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="16" t="s">
+    <row r="32" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B32" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C32" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D32" s="15">
         <v>2</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E32" s="15">
         <v>3</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F32" s="15">
         <v>1</v>
       </c>
-      <c r="G28" s="17" t="s">
+      <c r="G32" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="H28" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I28" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J28" s="16" t="s">
+      <c r="H32" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J32" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K28" s="16" t="s">
+      <c r="K32" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L28" s="16" t="s">
+      <c r="L32" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
+    <row r="33" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B33" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C33" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D33" s="15">
         <v>2</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E33" s="15">
         <v>3</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F33" s="15">
         <v>2</v>
       </c>
-      <c r="G29" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="H29" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I29" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J29" s="16" t="s">
+      <c r="G33" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J33" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K29" s="16" t="s">
+      <c r="K33" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L29" s="16" t="s">
+      <c r="L33" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="16" t="s">
+    <row r="34" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B34" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16">
+      <c r="D34" s="15">
         <v>2</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E34" s="15">
         <v>3</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F34" s="15">
         <v>2</v>
       </c>
-      <c r="G30" s="17" t="s">
+      <c r="G34" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="H30" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I30" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J30" s="16" t="s">
+      <c r="H34" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J34" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K30" s="16" t="s">
+      <c r="K34" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L30" s="16" t="s">
+      <c r="L34" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="16" t="s">
+    <row r="35" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B35" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C35" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D35" s="15">
         <v>2</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E35" s="15">
         <v>3</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F35" s="15">
         <v>2</v>
       </c>
-      <c r="G31" s="17" t="s">
+      <c r="G35" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="H31" s="16" t="s">
+      <c r="H35" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="I31" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J31" s="16" t="s">
+      <c r="I35" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J35" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K31" s="16" t="s">
+      <c r="K35" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L31" s="16" t="s">
+      <c r="L35" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="16" t="s">
+    <row r="36" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B36" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C36" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D36" s="15">
         <v>2</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E36" s="15">
         <v>3</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F36" s="15">
         <v>2</v>
       </c>
-      <c r="G32" s="17" t="s">
+      <c r="G36" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="H32" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I32" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J32" s="16" t="s">
+      <c r="H36" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J36" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K32" s="16" t="s">
+      <c r="K36" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L32" s="16" t="s">
+      <c r="L36" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="16" t="s">
+    <row r="37" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B37" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C37" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D37" s="15">
         <v>2</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E37" s="15">
         <v>3</v>
       </c>
-      <c r="F33" s="16">
+      <c r="F37" s="15">
         <v>2</v>
       </c>
-      <c r="G33" s="17" t="s">
+      <c r="G37" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="H33" s="16" t="s">
+      <c r="H37" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="I33" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J33" s="16" t="s">
+      <c r="I37" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J37" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K33" s="16" t="s">
+      <c r="K37" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L33" s="16" t="s">
+      <c r="L37" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="16" t="s">
+    <row r="38" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B38" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C38" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D38" s="15">
         <v>2</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E38" s="15">
         <v>3</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F38" s="15">
         <v>1</v>
       </c>
-      <c r="G34" s="17" t="s">
+      <c r="G38" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="H34" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I34" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J34" s="16" t="s">
+      <c r="H38" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I38" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J38" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K34" s="16" t="s">
+      <c r="K38" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L34" s="16" t="s">
+      <c r="L38" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="16" t="s">
+    <row r="39" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B39" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C39" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D39" s="15">
         <v>2</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E39" s="15">
         <v>3</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F39" s="15">
         <v>1</v>
       </c>
-      <c r="G35" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="H35" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I35" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J35" s="16" t="s">
+      <c r="G39" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J39" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K35" s="16" t="s">
+      <c r="K39" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L35" s="16" t="s">
+      <c r="L39" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="16" t="s">
+    <row r="40" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B40" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C40" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D40" s="15">
         <v>2</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E40" s="15">
         <v>3</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F40" s="15">
         <v>1</v>
       </c>
-      <c r="G36" s="17" t="s">
+      <c r="G40" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="H36" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I36" s="16" t="s">
+      <c r="H40" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I40" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="J36" s="16" t="s">
+      <c r="J40" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K36" s="16" t="s">
+      <c r="K40" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L36" s="16" t="s">
+      <c r="L40" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="16" t="s">
+    <row r="41" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B41" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C41" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D41" s="15">
         <v>3</v>
       </c>
-      <c r="E37" s="16">
+      <c r="E41" s="15">
         <v>3</v>
       </c>
-      <c r="F37" s="16">
+      <c r="F41" s="15">
         <v>1</v>
       </c>
-      <c r="G37" s="16" t="s">
+      <c r="G41" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="H37" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I37" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J37" s="16" t="s">
+      <c r="H41" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I41" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J41" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K37" s="16" t="s">
+      <c r="K41" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L37" s="16" t="s">
+      <c r="L41" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="16" t="s">
+    <row r="42" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B42" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C42" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D42" s="15">
         <v>3</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E42" s="15">
         <v>3</v>
       </c>
-      <c r="F38" s="16">
+      <c r="F42" s="15">
         <v>1</v>
       </c>
-      <c r="G38" s="17" t="s">
+      <c r="G42" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="H38" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I38" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J38" s="16" t="s">
+      <c r="H42" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I42" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J42" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K38" s="16" t="s">
+      <c r="K42" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L38" s="16" t="s">
+      <c r="L42" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="16" t="s">
+    <row r="43" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B43" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C43" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D43" s="15">
         <v>3</v>
       </c>
-      <c r="E39" s="16">
+      <c r="E43" s="15">
         <v>3</v>
       </c>
-      <c r="F39" s="16">
+      <c r="F43" s="15">
         <v>2</v>
       </c>
-      <c r="G39" s="17" t="s">
+      <c r="G43" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="H39" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I39" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J39" s="16" t="s">
+      <c r="H43" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I43" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J43" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K39" s="16" t="s">
+      <c r="K43" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L39" s="16" t="s">
+      <c r="L43" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="16" t="s">
+    <row r="44" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B44" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C44" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D44" s="15">
         <v>3</v>
       </c>
-      <c r="E40" s="16">
+      <c r="E44" s="15">
         <v>3</v>
       </c>
-      <c r="F40" s="16">
+      <c r="F44" s="15">
         <v>2</v>
       </c>
-      <c r="G40" s="17" t="s">
+      <c r="G44" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="H40" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I40" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J40" s="16" t="s">
+      <c r="H44" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I44" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J44" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K40" s="16" t="s">
+      <c r="K44" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L40" s="16" t="s">
+      <c r="L44" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="16" t="s">
+    <row r="45" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B45" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C45" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="D41" s="16">
+      <c r="D45" s="15">
         <v>3</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E45" s="15">
         <v>3</v>
       </c>
-      <c r="F41" s="16">
+      <c r="F45" s="15">
         <v>2</v>
       </c>
-      <c r="G41" s="17" t="s">
+      <c r="G45" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H41" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I41" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J41" s="16" t="s">
+      <c r="H45" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I45" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J45" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K41" s="16" t="s">
+      <c r="K45" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L41" s="16" t="s">
+      <c r="L45" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="16" t="s">
+    <row r="46" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B46" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C46" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="D42" s="16">
+      <c r="D46" s="15">
         <v>3</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E46" s="15">
         <v>3</v>
       </c>
-      <c r="F42" s="16">
+      <c r="F46" s="15">
         <v>1</v>
       </c>
-      <c r="G42" s="17" t="s">
+      <c r="G46" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="H42" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I42" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J42" s="16" t="s">
+      <c r="H46" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I46" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J46" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K42" s="16" t="s">
+      <c r="K46" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L42" s="16" t="s">
+      <c r="L46" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="16" t="s">
+    <row r="47" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B47" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C47" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="D43" s="16">
+      <c r="D47" s="15">
         <v>3</v>
       </c>
-      <c r="E43" s="16">
+      <c r="E47" s="15">
         <v>3</v>
       </c>
-      <c r="F43" s="16">
+      <c r="F47" s="15">
         <v>1</v>
       </c>
-      <c r="G43" s="17" t="s">
+      <c r="G47" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="H43" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I43" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J43" s="16" t="s">
+      <c r="H47" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I47" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J47" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K43" s="16" t="s">
+      <c r="K47" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L43" s="16" t="s">
+      <c r="L47" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="16" t="s">
+    <row r="48" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B48" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C48" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="D44" s="16">
+      <c r="D48" s="15">
         <v>3</v>
       </c>
-      <c r="E44" s="16">
+      <c r="E48" s="15">
         <v>4</v>
       </c>
-      <c r="F44" s="16" t="s">
+      <c r="F48" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="G44" s="17" t="s">
+      <c r="G48" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="H44" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I44" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J44" s="16" t="s">
+      <c r="H48" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I48" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J48" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K44" s="16" t="s">
+      <c r="K48" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L44" s="16" t="s">
+      <c r="L48" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="16" t="s">
+    <row r="49" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B49" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C49" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="D45" s="16">
+      <c r="D49" s="15">
         <v>3</v>
       </c>
-      <c r="E45" s="16">
+      <c r="E49" s="15">
         <v>3</v>
       </c>
-      <c r="F45" s="16">
+      <c r="F49" s="15">
         <v>1</v>
       </c>
-      <c r="G45" s="17" t="s">
+      <c r="G49" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="H45" s="16" t="s">
+      <c r="H49" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="I45" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J45" s="16" t="s">
+      <c r="I49" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J49" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K45" s="16" t="s">
+      <c r="K49" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L45" s="16" t="s">
+      <c r="L49" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="16" t="s">
+    <row r="50" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B50" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C50" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="D46" s="16">
+      <c r="D50" s="15">
         <v>3</v>
       </c>
-      <c r="E46" s="16">
+      <c r="E50" s="15">
         <v>3</v>
       </c>
-      <c r="F46" s="16">
+      <c r="F50" s="15">
         <v>2</v>
       </c>
-      <c r="G46" s="17" t="s">
+      <c r="G50" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="H46" s="17" t="s">
+      <c r="H50" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="I46" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J46" s="16" t="s">
+      <c r="I50" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J50" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K46" s="16" t="s">
+      <c r="K50" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L46" s="16" t="s">
+      <c r="L50" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="16" t="s">
+    <row r="51" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B51" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C51" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="D47" s="16">
+      <c r="D51" s="15">
         <v>3</v>
       </c>
-      <c r="E47" s="16">
+      <c r="E51" s="15">
         <v>3</v>
       </c>
-      <c r="F47" s="16">
+      <c r="F51" s="15">
         <v>2</v>
       </c>
-      <c r="G47" s="17" t="s">
+      <c r="G51" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H47" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I47" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J47" s="16" t="s">
+      <c r="H51" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I51" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J51" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K47" s="16" t="s">
+      <c r="K51" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L47" s="16" t="s">
+      <c r="L51" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="16" t="s">
+    <row r="52" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="B48" s="17" t="s">
+      <c r="B52" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C52" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="D48" s="16">
+      <c r="D52" s="15">
         <v>3</v>
       </c>
-      <c r="E48" s="16">
+      <c r="E52" s="15">
         <v>3</v>
       </c>
-      <c r="F48" s="16">
+      <c r="F52" s="15">
         <v>2</v>
       </c>
-      <c r="G48" s="17" t="s">
+      <c r="G52" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="H48" s="17" t="s">
+      <c r="H52" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="I48" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J48" s="16" t="s">
+      <c r="I52" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J52" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K48" s="16" t="s">
+      <c r="K52" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L48" s="16" t="s">
+      <c r="L52" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="16" t="s">
+    <row r="53" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B53" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C53" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="D49" s="16">
+      <c r="D53" s="15">
         <v>3</v>
       </c>
-      <c r="E49" s="16">
+      <c r="E53" s="15">
         <v>3</v>
       </c>
-      <c r="F49" s="16">
+      <c r="F53" s="15">
         <v>1</v>
       </c>
-      <c r="G49" s="17" t="s">
+      <c r="G53" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H49" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I49" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J49" s="16" t="s">
+      <c r="H53" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I53" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J53" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K49" s="16" t="s">
+      <c r="K53" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L49" s="16" t="s">
+      <c r="L53" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="16" t="s">
+    <row r="54" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B54" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16">
+      <c r="D54" s="15">
         <v>3</v>
       </c>
-      <c r="E50" s="16">
+      <c r="E54" s="15">
         <v>3</v>
       </c>
-      <c r="F50" s="16">
+      <c r="F54" s="15">
         <v>2</v>
       </c>
-      <c r="G50" s="17" t="s">
+      <c r="G54" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="H50" s="17" t="s">
+      <c r="H54" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16" t="s">
+      <c r="J54" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K50" s="16" t="s">
+      <c r="K54" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L50" s="16" t="s">
+      <c r="L54" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="16" t="s">
+    <row r="55" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B55" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C55" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="D51" s="16">
+      <c r="D55" s="15">
         <v>3</v>
       </c>
-      <c r="E51" s="16">
+      <c r="E55" s="15">
         <v>3</v>
       </c>
-      <c r="F51" s="16">
+      <c r="F55" s="15">
         <v>1</v>
       </c>
-      <c r="G51" s="17" t="s">
+      <c r="G55" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="H51" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I51" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J51" s="16" t="s">
+      <c r="H55" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I55" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J55" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K51" s="16" t="s">
+      <c r="K55" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L51" s="16" t="s">
+      <c r="L55" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="16" t="s">
+    <row r="56" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B56" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C56" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="D52" s="16">
+      <c r="D56" s="15">
         <v>3</v>
       </c>
-      <c r="E52" s="16">
+      <c r="E56" s="15">
         <v>3</v>
       </c>
-      <c r="F52" s="16">
+      <c r="F56" s="15">
         <v>2</v>
       </c>
-      <c r="G52" s="17" t="s">
+      <c r="G56" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="H52" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="I52" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J52" s="16" t="s">
+      <c r="H56" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I56" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J56" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K52" s="16" t="s">
+      <c r="K56" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L52" s="16" t="s">
+      <c r="L56" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="16" t="s">
+    <row r="57" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B57" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C57" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="D53" s="16">
+      <c r="D57" s="15">
         <v>3</v>
       </c>
-      <c r="E53" s="16">
+      <c r="E57" s="15">
         <v>3</v>
       </c>
-      <c r="F53" s="16">
+      <c r="F57" s="15">
         <v>1</v>
       </c>
-      <c r="G53" s="17" t="s">
+      <c r="G57" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="H53" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I53" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J53" s="16" t="s">
+      <c r="H57" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I57" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J57" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K53" s="16" t="s">
+      <c r="K57" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L53" s="16" t="s">
+      <c r="L57" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="16" t="s">
+    <row r="58" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="B58" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C58" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="D54" s="16">
+      <c r="D58" s="15">
         <v>3</v>
       </c>
-      <c r="E54" s="16">
+      <c r="E58" s="15">
         <v>3</v>
       </c>
-      <c r="F54" s="16">
+      <c r="F58" s="15">
         <v>2</v>
       </c>
-      <c r="G54" s="17" t="s">
+      <c r="G58" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="H54" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="I54" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J54" s="16" t="s">
+      <c r="H58" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I58" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J58" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K54" s="16" t="s">
+      <c r="K58" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L54" s="16" t="s">
+      <c r="L58" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="16" t="s">
+    <row r="59" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="B55" s="17" t="s">
+      <c r="B59" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C59" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="D55" s="16">
+      <c r="D59" s="15">
         <v>3</v>
       </c>
-      <c r="E55" s="16">
+      <c r="E59" s="15">
         <v>4</v>
       </c>
-      <c r="F55" s="16">
+      <c r="F59" s="15">
         <v>2</v>
       </c>
-      <c r="G55" s="17" t="s">
+      <c r="G59" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="H55" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I55" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J55" s="16" t="s">
+      <c r="H59" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I59" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J59" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K55" s="16" t="s">
+      <c r="K59" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L55" s="16" t="s">
+      <c r="L59" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="16" t="s">
+    <row r="60" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="B56" s="17" t="s">
+      <c r="B60" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C60" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="D56" s="16">
+      <c r="D60" s="15">
         <v>3</v>
       </c>
-      <c r="E56" s="16">
+      <c r="E60" s="15">
         <v>3</v>
       </c>
-      <c r="F56" s="16" t="s">
+      <c r="F60" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="G56" s="17" t="s">
+      <c r="G60" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="H56" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="I56" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J56" s="16" t="s">
+      <c r="H60" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I60" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J60" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K56" s="16" t="s">
+      <c r="K60" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L56" s="16" t="s">
+      <c r="L60" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="16" t="s">
+    <row r="61" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="B57" s="17" t="s">
+      <c r="B61" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C61" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="D57" s="16">
+      <c r="D61" s="15">
         <v>3</v>
       </c>
-      <c r="E57" s="16">
+      <c r="E61" s="15">
         <v>3</v>
       </c>
-      <c r="F57" s="16">
+      <c r="F61" s="15">
         <v>3</v>
       </c>
-      <c r="G57" s="17" t="s">
+      <c r="G61" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="H57" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I57" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J57" s="16" t="s">
+      <c r="H61" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I61" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J61" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K57" s="16" t="s">
+      <c r="K61" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L57" s="16" t="s">
+      <c r="L61" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="16" t="s">
+    <row r="62" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B58" s="17" t="s">
+      <c r="B62" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16">
+      <c r="D62" s="15">
         <v>3</v>
       </c>
-      <c r="E58" s="16">
+      <c r="E62" s="15">
         <v>3</v>
       </c>
-      <c r="F58" s="16">
+      <c r="F62" s="15">
         <v>1</v>
       </c>
-      <c r="G58" s="17" t="s">
+      <c r="G62" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="H58" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="I58" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J58" s="16" t="s">
+      <c r="H62" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I62" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J62" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K58" s="16" t="s">
+      <c r="K62" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L58" s="16" t="s">
+      <c r="L62" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="16" t="s">
+    <row r="63" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B63" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="C59" s="17" t="s">
+      <c r="C63" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="D59" s="16">
+      <c r="D63" s="15">
         <v>3</v>
       </c>
-      <c r="E59" s="16">
+      <c r="E63" s="15">
         <v>3</v>
       </c>
-      <c r="F59" s="16">
+      <c r="F63" s="15">
         <v>1</v>
       </c>
-      <c r="G59" s="17" t="s">
+      <c r="G63" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="H59" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I59" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J59" s="16" t="s">
+      <c r="H63" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I63" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J63" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K59" s="16" t="s">
+      <c r="K63" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L59" s="16" t="s">
+      <c r="L63" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="16" t="s">
+    <row r="64" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="B60" s="17" t="s">
+      <c r="B64" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C64" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="D60" s="16">
+      <c r="D64" s="15">
         <v>3</v>
       </c>
-      <c r="E60" s="16">
+      <c r="E64" s="15">
         <v>3</v>
       </c>
-      <c r="F60" s="16">
+      <c r="F64" s="15">
         <v>1</v>
       </c>
-      <c r="G60" s="17" t="s">
+      <c r="G64" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="H60" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="I60" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J60" s="16" t="s">
+      <c r="H64" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I64" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J64" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K60" s="16" t="s">
+      <c r="K64" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L60" s="16" t="s">
+      <c r="L64" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="16" t="s">
+    <row r="65" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="B61" s="17" t="s">
+      <c r="B65" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C65" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="D61" s="16">
+      <c r="D65" s="15">
         <v>3</v>
       </c>
-      <c r="E61" s="16">
+      <c r="E65" s="15">
         <v>3</v>
       </c>
-      <c r="F61" s="16">
+      <c r="F65" s="15">
         <v>2</v>
       </c>
-      <c r="G61" s="17" t="s">
+      <c r="G65" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="H61" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I61" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J61" s="16" t="s">
+      <c r="H65" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I65" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J65" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K61" s="16" t="s">
+      <c r="K65" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L61" s="16" t="s">
+      <c r="L65" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="16" t="s">
+    <row r="66" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="B62" s="17" t="s">
+      <c r="B66" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="C62" s="17" t="s">
+      <c r="C66" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="D62" s="16">
+      <c r="D66" s="15">
         <v>3</v>
       </c>
-      <c r="E62" s="16">
+      <c r="E66" s="15">
         <v>3</v>
       </c>
-      <c r="F62" s="16">
+      <c r="F66" s="15">
         <v>2</v>
       </c>
-      <c r="G62" s="17" t="s">
+      <c r="G66" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="H62" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I62" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J62" s="16" t="s">
+      <c r="H66" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I66" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J66" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K62" s="16" t="s">
+      <c r="K66" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L62" s="16" t="s">
+      <c r="L66" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="16" t="s">
+    <row r="67" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="B63" s="17" t="s">
+      <c r="B67" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="C67" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="D63" s="16">
+      <c r="D67" s="15">
         <v>3</v>
       </c>
-      <c r="E63" s="16">
+      <c r="E67" s="15">
         <v>3</v>
       </c>
-      <c r="F63" s="16">
+      <c r="F67" s="15">
         <v>2</v>
       </c>
-      <c r="G63" s="17" t="s">
+      <c r="G67" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="H63" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I63" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J63" s="16" t="s">
+      <c r="H67" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I67" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J67" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K63" s="16" t="s">
+      <c r="K67" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L63" s="16" t="s">
+      <c r="L67" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="16" t="s">
+    <row r="68" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="B64" s="17" t="s">
+      <c r="B68" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="C64" s="17" t="s">
+      <c r="C68" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="D64" s="16">
+      <c r="D68" s="15">
         <v>3</v>
       </c>
-      <c r="E64" s="16">
+      <c r="E68" s="15">
         <v>3</v>
       </c>
-      <c r="F64" s="16">
+      <c r="F68" s="15">
         <v>1</v>
       </c>
-      <c r="G64" s="17" t="s">
+      <c r="G68" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="H64" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I64" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J64" s="16" t="s">
+      <c r="H68" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I68" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J68" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K64" s="16" t="s">
+      <c r="K68" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L64" s="16" t="s">
+      <c r="L68" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="16" t="s">
+    <row r="69" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="B65" s="17" t="s">
+      <c r="B69" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="C65" s="17" t="s">
+      <c r="C69" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="D65" s="16">
+      <c r="D69" s="15">
         <v>3</v>
       </c>
-      <c r="E65" s="16">
+      <c r="E69" s="15">
         <v>3</v>
       </c>
-      <c r="F65" s="16">
+      <c r="F69" s="15">
         <v>2</v>
       </c>
-      <c r="G65" s="17" t="s">
+      <c r="G69" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="H65" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I65" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J65" s="16" t="s">
+      <c r="H69" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I69" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J69" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K65" s="16" t="s">
+      <c r="K69" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L65" s="16" t="s">
+      <c r="L69" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="16" t="s">
+    <row r="70" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="B66" s="17" t="s">
+      <c r="B70" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="C66" s="17" t="s">
+      <c r="C70" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="D66" s="16">
+      <c r="D70" s="15">
         <v>3</v>
       </c>
-      <c r="E66" s="16">
+      <c r="E70" s="15">
         <v>3</v>
       </c>
-      <c r="F66" s="16">
+      <c r="F70" s="15">
         <v>2</v>
       </c>
-      <c r="G66" s="17" t="s">
+      <c r="G70" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="H66" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="I66" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J66" s="16" t="s">
+      <c r="H70" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I70" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J70" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="K66" s="16" t="s">
+      <c r="K70" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="L66" s="16" t="s">
+      <c r="L70" s="15" t="s">
         <v>221</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6094,1314 +6314,1314 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B8044D-327E-457D-99AE-9807E704A793}">
   <dimension ref="A1:BD74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K2" sqref="K2:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="12"/>
-    <col min="7" max="7" width="40.109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="12"/>
-    <col min="10" max="10" width="40.109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="12"/>
-    <col min="13" max="14" width="9" style="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.88671875" style="12"/>
-    <col min="17" max="17" width="9" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.44140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.88671875" style="12"/>
-    <col min="22" max="22" width="16" style="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.44140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.88671875" style="12"/>
-    <col min="25" max="26" width="9" style="12" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.88671875" style="12"/>
-    <col min="28" max="28" width="9" style="12" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.77734375" style="12" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.88671875" style="12"/>
-    <col min="32" max="33" width="9" style="12" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.88671875" style="12"/>
-    <col min="35" max="36" width="9" style="12" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8.88671875" style="12"/>
-    <col min="38" max="39" width="9" style="12" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="8.88671875" style="12"/>
-    <col min="41" max="41" width="9" style="12" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="23.77734375" style="12" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="14.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="8.88671875" style="12"/>
-    <col min="45" max="45" width="9" style="12" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="23.77734375" style="12" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="8.88671875" style="12"/>
-    <col min="49" max="49" width="9" style="12" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="23.77734375" style="12" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="14.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="8.88671875" style="12"/>
-    <col min="53" max="54" width="9" style="12" bestFit="1" customWidth="1"/>
-    <col min="55" max="16384" width="8.88671875" style="12"/>
+    <col min="1" max="1" width="40.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="11"/>
+    <col min="7" max="7" width="40.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="11"/>
+    <col min="10" max="10" width="40.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="11"/>
+    <col min="13" max="14" width="9" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" style="11"/>
+    <col min="17" max="17" width="9" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.88671875" style="11"/>
+    <col min="22" max="22" width="16" style="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.88671875" style="11"/>
+    <col min="25" max="26" width="9" style="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.88671875" style="11"/>
+    <col min="28" max="28" width="9" style="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.88671875" style="11"/>
+    <col min="32" max="33" width="9" style="11" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.88671875" style="11"/>
+    <col min="35" max="36" width="9" style="11" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.88671875" style="11"/>
+    <col min="38" max="39" width="9" style="11" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="8.88671875" style="11"/>
+    <col min="41" max="41" width="9" style="11" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="23.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="8.88671875" style="11"/>
+    <col min="45" max="45" width="9" style="11" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="23.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="8.88671875" style="11"/>
+    <col min="49" max="49" width="9" style="11" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="23.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="14.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="8.88671875" style="11"/>
+    <col min="53" max="54" width="9" style="11" bestFit="1" customWidth="1"/>
+    <col min="55" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="18" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="18" t="s">
+      <c r="H1" s="17"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="K1" s="18"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="18" t="s">
+      <c r="K1" s="17"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="18" t="s">
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="18" t="s">
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="W1" s="18"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="19" t="s">
+      <c r="W1" s="17"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="18" t="s">
         <v>304</v>
       </c>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="18" t="s">
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="18" t="s">
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="AG1" s="18"/>
-      <c r="AH1" s="11"/>
-      <c r="AI1" s="18" t="s">
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="11"/>
-      <c r="AL1" s="18" t="s">
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="10"/>
+      <c r="AL1" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="AM1" s="18"/>
-      <c r="AN1" s="11"/>
-      <c r="AO1" s="18" t="s">
+      <c r="AM1" s="17"/>
+      <c r="AN1" s="10"/>
+      <c r="AO1" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="AP1" s="18"/>
-      <c r="AQ1" s="18"/>
-      <c r="AR1" s="11"/>
-      <c r="AS1" s="18" t="s">
+      <c r="AP1" s="17"/>
+      <c r="AQ1" s="17"/>
+      <c r="AR1" s="10"/>
+      <c r="AS1" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="AT1" s="18"/>
-      <c r="AU1" s="18"/>
-      <c r="AV1" s="11"/>
-      <c r="AW1" s="18" t="s">
+      <c r="AT1" s="17"/>
+      <c r="AU1" s="17"/>
+      <c r="AV1" s="10"/>
+      <c r="AW1" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="AX1" s="18"/>
-      <c r="AY1" s="18"/>
-      <c r="BA1" s="18" t="s">
+      <c r="AX1" s="17"/>
+      <c r="AY1" s="17"/>
+      <c r="BA1" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="BB1" s="18"/>
-      <c r="BD1" s="15"/>
+      <c r="BB1" s="17"/>
+      <c r="BD1" s="14"/>
     </row>
     <row r="2" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="10"/>
+      <c r="G2" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="7" t="s">
+      <c r="I2" s="10"/>
+      <c r="J2" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="9" t="s">
+      <c r="L2" s="10"/>
+      <c r="M2" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="8" t="s">
+      <c r="P2" s="10"/>
+      <c r="Q2" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="11"/>
-      <c r="V2" s="7" t="s">
+      <c r="U2" s="10"/>
+      <c r="V2" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="W2" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="8" t="s">
+      <c r="X2" s="10"/>
+      <c r="Y2" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="Z2" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="8" t="s">
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AC2" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AD2" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="8" t="s">
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="AG2" s="8" t="s">
+      <c r="AG2" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="8" t="s">
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="AJ2" s="8" t="s">
+      <c r="AJ2" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="AK2" s="11"/>
-      <c r="AL2" s="8" t="s">
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="AM2" s="8" t="s">
+      <c r="AM2" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="AN2" s="11"/>
-      <c r="AO2" s="8" t="s">
+      <c r="AN2" s="10"/>
+      <c r="AO2" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="AP2" s="8" t="s">
+      <c r="AP2" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="AQ2" s="8" t="s">
+      <c r="AQ2" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="AR2" s="11"/>
-      <c r="AS2" s="8" t="s">
+      <c r="AR2" s="10"/>
+      <c r="AS2" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="AT2" s="8" t="s">
+      <c r="AT2" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="AU2" s="8" t="s">
+      <c r="AU2" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="AV2" s="11"/>
-      <c r="AW2" s="8" t="s">
+      <c r="AV2" s="10"/>
+      <c r="AW2" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="AX2" s="8" t="s">
+      <c r="AX2" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="AY2" s="8" t="s">
+      <c r="AY2" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="BA2" s="7" t="s">
+      <c r="BA2" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="BB2" s="7" t="s">
+      <c r="BB2" s="6" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>30</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>39</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="V3" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="W3" s="10" t="s">
+      <c r="W3" s="9" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="11">
         <v>30</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>51</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="12" t="s">
+      <c r="V4" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="W4" s="10" t="s">
+      <c r="W4" s="9" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>30</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>39</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="V5" s="12" t="s">
+      <c r="V5" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="W5" s="10" t="s">
+      <c r="W5" s="9" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>21</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>36</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="V6" s="12" t="s">
+      <c r="V6" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="W6" s="10" t="s">
+      <c r="W6" s="9" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <v>21</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>36</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="G8" s="12" t="s">
+      <c r="E8" s="12"/>
+      <c r="G8" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <v>21</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>36</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="K9" s="9" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="9" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K12" s="9" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="13" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="J13" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="K13" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="K14" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="K15" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:56" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="K16" s="10" t="s">
+      <c r="K16" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="J17" s="12" t="s">
+      <c r="J17" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="K17" s="10" t="s">
+      <c r="K17" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="12" t="s">
+      <c r="J18" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="K18" s="10" t="s">
+      <c r="K18" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="19" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J19" s="12" t="s">
+      <c r="J19" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="K19" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="20" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J20" s="12" t="s">
+      <c r="J20" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="K20" s="10" t="s">
+      <c r="K20" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="21" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="H21" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="12" t="s">
+      <c r="J21" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="K21" s="10" t="s">
+      <c r="K21" s="9" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="22" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H22" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="J22" s="12" t="s">
+      <c r="J22" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="K22" s="9" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="23" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="H23" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J23" s="12" t="s">
+      <c r="J23" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="K23" s="10" t="s">
+      <c r="K23" s="9" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="24" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="H24" s="10" t="s">
+      <c r="H24" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="J24" s="12" t="s">
+      <c r="J24" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="K24" s="10" t="s">
+      <c r="K24" s="9" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="25" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G25" s="12" t="s">
+      <c r="G25" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="H25" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="J25" s="12" t="s">
+      <c r="J25" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="K25" s="10" t="s">
+      <c r="K25" s="9" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="26" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G26" s="12" t="s">
+      <c r="G26" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="H26" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="J26" s="12" t="s">
+      <c r="J26" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="K26" s="10" t="s">
+      <c r="K26" s="9" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="27" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="12" t="s">
+      <c r="G27" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="H27" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J27" s="12" t="s">
+      <c r="J27" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="K27" s="10" t="s">
+      <c r="K27" s="9" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="28" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G28" s="12" t="s">
+      <c r="G28" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="H28" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="J28" s="12" t="s">
+      <c r="J28" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="K28" s="10" t="s">
+      <c r="K28" s="9" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="29" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G29" s="12" t="s">
+      <c r="G29" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="H29" s="10" t="s">
+      <c r="H29" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="J29" s="12" t="s">
+      <c r="J29" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="K29" s="10" t="s">
+      <c r="K29" s="9" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="30" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G30" s="12" t="s">
+      <c r="G30" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="H30" s="10" t="s">
+      <c r="H30" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="J30" s="12" t="s">
+      <c r="J30" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="K30" s="10" t="s">
+      <c r="K30" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="31" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G31" s="12" t="s">
+      <c r="G31" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="H31" s="10" t="s">
+      <c r="H31" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J31" s="12" t="s">
+      <c r="J31" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="K31" s="10" t="s">
+      <c r="K31" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="32" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G32" s="12" t="s">
+      <c r="G32" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="H32" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="J32" s="12" t="s">
+      <c r="J32" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="K32" s="10" t="s">
+      <c r="K32" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="33" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G33" s="12" t="s">
+      <c r="G33" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="H33" s="10" t="s">
+      <c r="H33" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="J33" s="12" t="s">
+      <c r="J33" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="K33" s="10" t="s">
+      <c r="K33" s="9" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="34" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G34" s="12" t="s">
+      <c r="G34" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="H34" s="10" t="s">
+      <c r="H34" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="J34" s="12" t="s">
+      <c r="J34" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="K34" s="10" t="s">
+      <c r="K34" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="35" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G35" s="12" t="s">
+      <c r="G35" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="H35" s="10" t="s">
+      <c r="H35" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="J35" s="12" t="s">
+      <c r="J35" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="K35" s="10" t="s">
+      <c r="K35" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="36" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G36" s="12" t="s">
+      <c r="G36" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="H36" s="10" t="s">
+      <c r="H36" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="J36" s="12" t="s">
+      <c r="J36" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="K36" s="10" t="s">
+      <c r="K36" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="37" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G37" s="12" t="s">
+      <c r="G37" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="H37" s="10" t="s">
+      <c r="H37" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="J37" s="12" t="s">
+      <c r="J37" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="K37" s="10" t="s">
+      <c r="K37" s="9" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="38" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G38" s="12" t="s">
+      <c r="G38" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="H38" s="10" t="s">
+      <c r="H38" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="J38" s="12" t="s">
+      <c r="J38" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="K38" s="10" t="s">
+      <c r="K38" s="9" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="39" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G39" s="12" t="s">
+      <c r="G39" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="H39" s="10" t="s">
+      <c r="H39" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="J39" s="12" t="s">
+      <c r="J39" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="K39" s="10" t="s">
+      <c r="K39" s="9" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="40" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G40" s="12" t="s">
+      <c r="G40" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="H40" s="10" t="s">
+      <c r="H40" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="J40" s="12" t="s">
+      <c r="J40" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="K40" s="10" t="s">
+      <c r="K40" s="9" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="41" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G41" s="12" t="s">
+      <c r="G41" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="H41" s="10" t="s">
+      <c r="H41" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J41" s="12" t="s">
+      <c r="J41" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="K41" s="10" t="s">
+      <c r="K41" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="42" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G42" s="12" t="s">
+      <c r="G42" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="H42" s="10" t="s">
+      <c r="H42" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J42" s="12" t="s">
+      <c r="J42" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="K42" s="10" t="s">
+      <c r="K42" s="9" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="43" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G43" s="12" t="s">
+      <c r="G43" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="H43" s="10" t="s">
+      <c r="H43" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J43" s="12" t="s">
+      <c r="J43" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="K43" s="10" t="s">
+      <c r="K43" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="44" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G44" s="12" t="s">
+      <c r="G44" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="H44" s="10" t="s">
+      <c r="H44" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J44" s="12" t="s">
+      <c r="J44" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="K44" s="10" t="s">
+      <c r="K44" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="45" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G45" s="12" t="s">
+      <c r="G45" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="H45" s="10" t="s">
+      <c r="H45" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J45" s="12" t="s">
+      <c r="J45" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="K45" s="10" t="s">
+      <c r="K45" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="46" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G46" s="12" t="s">
+      <c r="G46" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="H46" s="10" t="s">
+      <c r="H46" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="J46" s="12" t="s">
+      <c r="J46" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="K46" s="10" t="s">
+      <c r="K46" s="9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="47" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G47" s="12" t="s">
+      <c r="G47" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="H47" s="10" t="s">
+      <c r="H47" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="J47" s="12" t="s">
+      <c r="J47" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="K47" s="10" t="s">
+      <c r="K47" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="48" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G48" s="12" t="s">
+      <c r="G48" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="H48" s="10" t="s">
+      <c r="H48" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J48" s="12" t="s">
+      <c r="J48" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="K48" s="10" t="s">
+      <c r="K48" s="9" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="49" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G49" s="12" t="s">
+      <c r="G49" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="H49" s="10" t="s">
+      <c r="H49" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J49" s="12" t="s">
+      <c r="J49" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="K49" s="10" t="s">
+      <c r="K49" s="9" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="50" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G50" s="12" t="s">
+      <c r="G50" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="H50" s="10" t="s">
+      <c r="H50" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J50" s="12" t="s">
+      <c r="J50" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="K50" s="10" t="s">
+      <c r="K50" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="51" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G51" s="12" t="s">
+      <c r="G51" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="H51" s="10" t="s">
+      <c r="H51" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J51" s="12" t="s">
+      <c r="J51" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="K51" s="10" t="s">
+      <c r="K51" s="9" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="52" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G52" s="12" t="s">
+      <c r="G52" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="H52" s="10" t="s">
+      <c r="H52" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="J52" s="12" t="s">
+      <c r="J52" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="K52" s="10" t="s">
+      <c r="K52" s="9" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="53" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G53" s="12" t="s">
+      <c r="G53" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="H53" s="10" t="s">
+      <c r="H53" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="J53" s="12" t="s">
+      <c r="J53" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="K53" s="10" t="s">
+      <c r="K53" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="54" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G54" s="12" t="s">
+      <c r="G54" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="H54" s="10" t="s">
+      <c r="H54" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="J54" s="12" t="s">
+      <c r="J54" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="K54" s="10" t="s">
+      <c r="K54" s="9" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="55" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G55" s="12" t="s">
+      <c r="G55" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="H55" s="10" t="s">
+      <c r="H55" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J55" s="12" t="s">
+      <c r="J55" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="K55" s="10" t="s">
+      <c r="K55" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="56" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G56" s="12" t="s">
+      <c r="G56" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="H56" s="10" t="s">
+      <c r="H56" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J56" s="12" t="s">
+      <c r="J56" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="K56" s="10" t="s">
+      <c r="K56" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="57" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G57" s="12" t="s">
+      <c r="G57" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="H57" s="10" t="s">
+      <c r="H57" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J57" s="12" t="s">
+      <c r="J57" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="K57" s="10" t="s">
+      <c r="K57" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="58" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G58" s="12" t="s">
+      <c r="G58" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="H58" s="10" t="s">
+      <c r="H58" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J58" s="12" t="s">
+      <c r="J58" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="K58" s="10" t="s">
+      <c r="K58" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="59" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G59" s="12" t="s">
+      <c r="G59" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="H59" s="10" t="s">
+      <c r="H59" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="J59" s="12" t="s">
+      <c r="J59" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="K59" s="10" t="s">
+      <c r="K59" s="9" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="60" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J60" s="12" t="s">
+      <c r="J60" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="K60" s="10" t="s">
+      <c r="K60" s="9" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="61" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J61" s="12" t="s">
+      <c r="J61" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="K61" s="10" t="s">
+      <c r="K61" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="62" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J62" s="12" t="s">
+      <c r="J62" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="K62" s="10" t="s">
+      <c r="K62" s="9" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="63" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J63" s="12" t="s">
+      <c r="J63" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="K63" s="10" t="s">
+      <c r="K63" s="9" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="64" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J64" s="12" t="s">
+      <c r="J64" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="K64" s="10" t="s">
+      <c r="K64" s="9" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="65" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J65" s="12" t="s">
+      <c r="J65" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="K65" s="10" t="s">
+      <c r="K65" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="66" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J66" s="12" t="s">
+      <c r="J66" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="K66" s="10" t="s">
+      <c r="K66" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="67" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J67" s="12" t="s">
+      <c r="J67" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="K67" s="10" t="s">
+      <c r="K67" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="68" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J68" s="12" t="s">
+      <c r="J68" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="K68" s="10" t="s">
+      <c r="K68" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="69" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J69" s="12" t="s">
+      <c r="J69" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="K69" s="10" t="s">
+      <c r="K69" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="70" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J70" s="12" t="s">
+      <c r="J70" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="K70" s="10" t="s">
+      <c r="K70" s="9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="71" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J71" s="12" t="s">
+      <c r="J71" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="K71" s="10" t="s">
+      <c r="K71" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="72" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J72" s="12" t="s">
+      <c r="J72" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="K72" s="10" t="s">
+      <c r="K72" s="9" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="73" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J73" s="12" t="s">
+      <c r="J73" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="K73" s="10" t="s">
+      <c r="K73" s="9" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="74" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J74" s="12" t="s">
+      <c r="J74" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="K74" s="10" t="s">
+      <c r="K74" s="9" t="s">
         <v>123</v>
       </c>
     </row>
@@ -7431,1657 +7651,1657 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A06DF4EB-41E4-4B17-A6EF-3D1AF4386A7C}">
   <dimension ref="A1:BB101"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AE17" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AJ22" sqref="AJ22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="129.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="12"/>
-    <col min="7" max="7" width="42.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="12"/>
-    <col min="10" max="10" width="42.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.77734375" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="12"/>
-    <col min="13" max="13" width="29.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.88671875" style="12"/>
-    <col min="17" max="17" width="10.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.44140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.88671875" style="12"/>
-    <col min="22" max="22" width="10.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="34.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.88671875" style="12"/>
-    <col min="25" max="25" width="10.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.88671875" style="12"/>
-    <col min="28" max="28" width="17.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.77734375" style="12" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.88671875" style="12"/>
-    <col min="32" max="32" width="33.77734375" style="12" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.21875" style="12" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.88671875" style="12"/>
-    <col min="35" max="35" width="33.77734375" style="12" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8.88671875" style="12"/>
-    <col min="38" max="38" width="10.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="9" style="12" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="8.88671875" style="12"/>
-    <col min="41" max="41" width="33.77734375" style="12" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="23.77734375" style="12" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="14.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="8.88671875" style="12"/>
-    <col min="45" max="45" width="33.77734375" style="12" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="23.77734375" style="12" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="14.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="8.88671875" style="12"/>
-    <col min="49" max="49" width="10.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="23.77734375" style="12" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="14.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="8.88671875" style="12"/>
-    <col min="53" max="53" width="10.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="9" style="12" bestFit="1" customWidth="1"/>
-    <col min="55" max="16384" width="8.88671875" style="12"/>
+    <col min="1" max="1" width="42.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="129.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="11"/>
+    <col min="7" max="7" width="42.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="11"/>
+    <col min="10" max="10" width="42.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="11"/>
+    <col min="13" max="13" width="29.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" style="11"/>
+    <col min="17" max="17" width="10.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.88671875" style="11"/>
+    <col min="22" max="22" width="10.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="34.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.88671875" style="11"/>
+    <col min="25" max="25" width="10.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.88671875" style="11"/>
+    <col min="28" max="28" width="17.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.88671875" style="11"/>
+    <col min="32" max="32" width="33.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.88671875" style="11"/>
+    <col min="35" max="35" width="33.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.88671875" style="11"/>
+    <col min="38" max="38" width="10.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9" style="11" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="8.88671875" style="11"/>
+    <col min="41" max="41" width="33.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="23.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="8.88671875" style="11"/>
+    <col min="45" max="45" width="33.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="23.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="14.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="8.88671875" style="11"/>
+    <col min="49" max="49" width="10.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="23.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="14.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="8.88671875" style="11"/>
+    <col min="53" max="53" width="10.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="9" style="11" bestFit="1" customWidth="1"/>
+    <col min="55" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="18" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="17" t="s">
         <v>331</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="18" t="s">
+      <c r="H1" s="17"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="K1" s="18"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="18" t="s">
+      <c r="K1" s="17"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="18" t="s">
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="18" t="s">
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="W1" s="18"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="19" t="s">
+      <c r="W1" s="17"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="18" t="s">
         <v>334</v>
       </c>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="18" t="s">
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="18" t="s">
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="AG1" s="18"/>
-      <c r="AH1" s="11"/>
-      <c r="AI1" s="18" t="s">
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="17" t="s">
         <v>337</v>
       </c>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="11"/>
-      <c r="AL1" s="18" t="s">
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="10"/>
+      <c r="AL1" s="17" t="s">
         <v>338</v>
       </c>
-      <c r="AM1" s="18"/>
-      <c r="AN1" s="11"/>
-      <c r="AO1" s="18" t="s">
+      <c r="AM1" s="17"/>
+      <c r="AN1" s="10"/>
+      <c r="AO1" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="AP1" s="18"/>
-      <c r="AQ1" s="18"/>
-      <c r="AR1" s="11"/>
-      <c r="AS1" s="18" t="s">
+      <c r="AP1" s="17"/>
+      <c r="AQ1" s="17"/>
+      <c r="AR1" s="10"/>
+      <c r="AS1" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="AT1" s="18"/>
-      <c r="AU1" s="18"/>
-      <c r="AV1" s="11"/>
-      <c r="AW1" s="18" t="s">
+      <c r="AT1" s="17"/>
+      <c r="AU1" s="17"/>
+      <c r="AV1" s="10"/>
+      <c r="AW1" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="AX1" s="18"/>
-      <c r="AY1" s="18"/>
-      <c r="BA1" s="18" t="s">
+      <c r="AX1" s="17"/>
+      <c r="AY1" s="17"/>
+      <c r="BA1" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="BB1" s="18"/>
+      <c r="BB1" s="17"/>
     </row>
     <row r="2" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="10"/>
+      <c r="G2" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="7" t="s">
+      <c r="I2" s="10"/>
+      <c r="J2" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="9" t="s">
+      <c r="L2" s="10"/>
+      <c r="M2" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="8" t="s">
+      <c r="P2" s="10"/>
+      <c r="Q2" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="11"/>
-      <c r="V2" s="7" t="s">
+      <c r="U2" s="10"/>
+      <c r="V2" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="W2" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="8" t="s">
+      <c r="X2" s="10"/>
+      <c r="Y2" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="Z2" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="8" t="s">
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AC2" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AD2" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="8" t="s">
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="AG2" s="8" t="s">
+      <c r="AG2" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="8" t="s">
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="AJ2" s="8" t="s">
+      <c r="AJ2" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="AK2" s="11"/>
-      <c r="AL2" s="8" t="s">
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="AM2" s="8" t="s">
+      <c r="AM2" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="AN2" s="11"/>
-      <c r="AO2" s="8" t="s">
+      <c r="AN2" s="10"/>
+      <c r="AO2" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="AP2" s="8" t="s">
+      <c r="AP2" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="AQ2" s="8" t="s">
+      <c r="AQ2" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="AR2" s="11"/>
-      <c r="AS2" s="8" t="s">
+      <c r="AR2" s="10"/>
+      <c r="AS2" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="AT2" s="8" t="s">
+      <c r="AT2" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="AU2" s="8" t="s">
+      <c r="AU2" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="AV2" s="11"/>
-      <c r="AW2" s="8" t="s">
+      <c r="AV2" s="10"/>
+      <c r="AW2" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="AX2" s="8" t="s">
+      <c r="AX2" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="AY2" s="8" t="s">
+      <c r="AY2" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="BA2" s="7" t="s">
+      <c r="BA2" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="BB2" s="7" t="s">
+      <c r="BB2" s="6" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="11" t="s">
         <v>380</v>
       </c>
-      <c r="AF3" s="12" t="s">
+      <c r="AF3" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="AG3" s="14" t="s">
+      <c r="AG3" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="AI3" s="12" t="s">
+      <c r="AI3" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="AJ3" s="10" t="s">
+      <c r="AJ3" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="AO3" s="12" t="s">
+      <c r="AO3" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="AP3" s="12">
+      <c r="AP3" s="11">
         <v>1</v>
       </c>
-      <c r="AS3" s="12" t="s">
+      <c r="AS3" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="AT3" s="12">
+      <c r="AT3" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="AF4" s="12" t="s">
+      <c r="AF4" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="AG4" s="14" t="s">
+      <c r="AG4" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AI4" s="12" t="s">
+      <c r="AI4" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="AJ4" s="10" t="s">
+      <c r="AJ4" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="AO4" s="12" t="s">
+      <c r="AO4" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="AP4" s="12">
+      <c r="AP4" s="11">
         <v>1</v>
       </c>
-      <c r="AS4" s="12" t="s">
+      <c r="AS4" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="AT4" s="12">
+      <c r="AT4" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="AF5" s="12" t="s">
+      <c r="AF5" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="AG5" s="14" t="s">
+      <c r="AG5" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="AI5" s="12" t="s">
+      <c r="AI5" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="AJ5" s="10" t="s">
+      <c r="AJ5" s="9" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="6" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="AF6" s="12" t="s">
+      <c r="AF6" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="AG6" s="14" t="s">
+      <c r="AG6" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="AI6" s="12" t="s">
+      <c r="AI6" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="AJ6" s="10" t="s">
+      <c r="AJ6" s="9" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="7" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AF7" s="12" t="s">
+      <c r="AF7" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="AG7" s="10" t="s">
+      <c r="AG7" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="AI7" s="12" t="s">
+      <c r="AI7" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="AJ7" s="10" t="s">
+      <c r="AJ7" s="9" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="8" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AF8" s="12" t="s">
+      <c r="AF8" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="AG8" s="10" t="s">
+      <c r="AG8" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="AI8" s="12" t="s">
+      <c r="AI8" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="AJ8" s="10" t="s">
+      <c r="AJ8" s="9" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="9" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="K9" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="AF9" s="12" t="s">
+      <c r="AF9" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="AG9" s="10" t="s">
+      <c r="AG9" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="AI9" s="12" t="s">
+      <c r="AI9" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="AJ9" s="10" t="s">
+      <c r="AJ9" s="9" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AF10" s="12" t="s">
+      <c r="AF10" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="AG10" s="10" t="s">
+      <c r="AG10" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="AI10" s="12" t="s">
+      <c r="AI10" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="AJ10" s="10" t="s">
+      <c r="AJ10" s="9" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AF11" s="12" t="s">
+      <c r="AF11" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="AG11" s="10" t="s">
+      <c r="AG11" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="AI11" s="12" t="s">
+      <c r="AI11" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="AJ11" s="10" t="s">
+      <c r="AJ11" s="9" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K12" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AF12" s="12" t="s">
+      <c r="AF12" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="AG12" s="10" t="s">
+      <c r="AG12" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="AI12" s="12" t="s">
+      <c r="AI12" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="AJ12" s="10" t="s">
+      <c r="AJ12" s="9" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="13" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="J13" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="K13" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AF13" s="12" t="s">
+      <c r="AF13" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="AG13" s="10" t="s">
+      <c r="AG13" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="AI13" s="12" t="s">
+      <c r="AI13" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="AJ13" s="10" t="s">
+      <c r="AJ13" s="9" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="K14" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="AF14" s="12" t="s">
+      <c r="AF14" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="AG14" s="10" t="s">
+      <c r="AG14" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="AI14" s="12" t="s">
+      <c r="AI14" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="AJ14" s="10" t="s">
+      <c r="AJ14" s="9" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="K15" s="9" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="H16" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="K16" s="10" t="s">
+      <c r="K16" s="9" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="17" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="J17" s="12" t="s">
+      <c r="J17" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="K17" s="10" t="s">
+      <c r="K17" s="9" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="18" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="12" t="s">
+      <c r="J18" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="K18" s="10" t="s">
+      <c r="K18" s="9" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="19" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="12" t="s">
+      <c r="J19" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="K19" s="9" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="20" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J20" s="12" t="s">
+      <c r="J20" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="K20" s="10" t="s">
+      <c r="K20" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="21" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="H21" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="J21" s="12" t="s">
+      <c r="J21" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="K21" s="10" t="s">
+      <c r="K21" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="22" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H22" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="J22" s="12" t="s">
+      <c r="J22" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="K22" s="9" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="23" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="H23" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="J23" s="12" t="s">
+      <c r="J23" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="K23" s="10" t="s">
+      <c r="K23" s="9" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="24" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="H24" s="10" t="s">
+      <c r="H24" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="J24" s="12" t="s">
+      <c r="J24" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="K24" s="10" t="s">
+      <c r="K24" s="9" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="25" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G25" s="12" t="s">
+      <c r="G25" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="H25" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="J25" s="12" t="s">
+      <c r="J25" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="K25" s="10" t="s">
+      <c r="K25" s="9" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="26" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G26" s="12" t="s">
+      <c r="G26" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="H26" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="J26" s="12" t="s">
+      <c r="J26" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="K26" s="10" t="s">
+      <c r="K26" s="9" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="27" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G27" s="12" t="s">
+      <c r="G27" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="H27" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J27" s="12" t="s">
+      <c r="J27" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="K27" s="10" t="s">
+      <c r="K27" s="9" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="28" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G28" s="12" t="s">
+      <c r="G28" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="H28" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="J28" s="12" t="s">
+      <c r="J28" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="K28" s="10" t="s">
+      <c r="K28" s="9" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="29" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G29" s="12" t="s">
+      <c r="G29" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="H29" s="10" t="s">
+      <c r="H29" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J29" s="12" t="s">
+      <c r="J29" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="K29" s="10" t="s">
+      <c r="K29" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="30" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G30" s="12" t="s">
+      <c r="G30" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="H30" s="10" t="s">
+      <c r="H30" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J30" s="12" t="s">
+      <c r="J30" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="K30" s="10" t="s">
+      <c r="K30" s="9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="31" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G31" s="12" t="s">
+      <c r="G31" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="H31" s="10" t="s">
+      <c r="H31" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J31" s="12" t="s">
+      <c r="J31" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="K31" s="10" t="s">
+      <c r="K31" s="9" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="32" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G32" s="12" t="s">
+      <c r="G32" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="H32" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J32" s="12" t="s">
+      <c r="J32" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="K32" s="10" t="s">
+      <c r="K32" s="9" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="33" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G33" s="12" t="s">
+      <c r="G33" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="H33" s="10" t="s">
+      <c r="H33" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J33" s="12" t="s">
+      <c r="J33" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="K33" s="10" t="s">
+      <c r="K33" s="9" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="34" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G34" s="12" t="s">
+      <c r="G34" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="H34" s="10" t="s">
+      <c r="H34" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="J34" s="12" t="s">
+      <c r="J34" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="K34" s="10" t="s">
+      <c r="K34" s="9" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="35" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G35" s="12" t="s">
+      <c r="G35" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="H35" s="10" t="s">
+      <c r="H35" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="J35" s="12" t="s">
+      <c r="J35" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="K35" s="10" t="s">
+      <c r="K35" s="9" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="36" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G36" s="12" t="s">
+      <c r="G36" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="H36" s="10" t="s">
+      <c r="H36" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="J36" s="12" t="s">
+      <c r="J36" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="K36" s="10" t="s">
+      <c r="K36" s="9" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="37" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G37" s="12" t="s">
+      <c r="G37" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="H37" s="10" t="s">
+      <c r="H37" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J37" s="12" t="s">
+      <c r="J37" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="K37" s="10" t="s">
+      <c r="K37" s="9" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="38" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G38" s="12" t="s">
+      <c r="G38" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="H38" s="10" t="s">
+      <c r="H38" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="J38" s="12" t="s">
+      <c r="J38" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="K38" s="10" t="s">
+      <c r="K38" s="9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="39" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G39" s="12" t="s">
+      <c r="G39" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="H39" s="10" t="s">
+      <c r="H39" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J39" s="12" t="s">
+      <c r="J39" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="K39" s="10" t="s">
+      <c r="K39" s="9" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="40" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G40" s="12" t="s">
+      <c r="G40" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="H40" s="10" t="s">
+      <c r="H40" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J40" s="12" t="s">
+      <c r="J40" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="K40" s="10" t="s">
+      <c r="K40" s="9" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="41" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G41" s="12" t="s">
+      <c r="G41" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="H41" s="10" t="s">
+      <c r="H41" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J41" s="12" t="s">
+      <c r="J41" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="K41" s="10" t="s">
+      <c r="K41" s="9" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="42" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G42" s="12" t="s">
+      <c r="G42" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="H42" s="10" t="s">
+      <c r="H42" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J42" s="12" t="s">
+      <c r="J42" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="K42" s="10" t="s">
+      <c r="K42" s="9" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="43" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G43" s="12" t="s">
+      <c r="G43" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="H43" s="10" t="s">
+      <c r="H43" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J43" s="12" t="s">
+      <c r="J43" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="K43" s="10" t="s">
+      <c r="K43" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="44" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G44" s="12" t="s">
+      <c r="G44" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="H44" s="10" t="s">
+      <c r="H44" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="J44" s="12" t="s">
+      <c r="J44" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="K44" s="10" t="s">
+      <c r="K44" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="45" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G45" s="12" t="s">
+      <c r="G45" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="H45" s="10" t="s">
+      <c r="H45" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="J45" s="12" t="s">
+      <c r="J45" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="K45" s="10" t="s">
+      <c r="K45" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="46" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G46" s="12" t="s">
+      <c r="G46" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="H46" s="10" t="s">
+      <c r="H46" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="J46" s="12" t="s">
+      <c r="J46" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="K46" s="10" t="s">
+      <c r="K46" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="47" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G47" s="12" t="s">
+      <c r="G47" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="H47" s="10" t="s">
+      <c r="H47" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J47" s="12" t="s">
+      <c r="J47" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="K47" s="10" t="s">
+      <c r="K47" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="48" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G48" s="12" t="s">
+      <c r="G48" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="H48" s="10" t="s">
+      <c r="H48" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="J48" s="12" t="s">
+      <c r="J48" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="K48" s="10" t="s">
+      <c r="K48" s="9" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="49" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G49" s="12" t="s">
+      <c r="G49" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="H49" s="10" t="s">
+      <c r="H49" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J49" s="12" t="s">
+      <c r="J49" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="K49" s="10" t="s">
+      <c r="K49" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="50" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G50" s="12" t="s">
+      <c r="G50" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="H50" s="10" t="s">
+      <c r="H50" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J50" s="12" t="s">
+      <c r="J50" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="K50" s="10" t="s">
+      <c r="K50" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="51" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G51" s="12" t="s">
+      <c r="G51" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="H51" s="10" t="s">
+      <c r="H51" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="J51" s="12" t="s">
+      <c r="J51" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="K51" s="10" t="s">
+      <c r="K51" s="9" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="52" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G52" s="12" t="s">
+      <c r="G52" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="H52" s="10" t="s">
+      <c r="H52" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J52" s="12" t="s">
+      <c r="J52" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="K52" s="10" t="s">
+      <c r="K52" s="9" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="53" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G53" s="12" t="s">
+      <c r="G53" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="H53" s="10" t="s">
+      <c r="H53" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J53" s="12" t="s">
+      <c r="J53" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="K53" s="10" t="s">
+      <c r="K53" s="9" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="54" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G54" s="12" t="s">
+      <c r="G54" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="H54" s="10" t="s">
+      <c r="H54" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="J54" s="12" t="s">
+      <c r="J54" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="K54" s="10" t="s">
+      <c r="K54" s="9" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="55" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G55" s="12" t="s">
+      <c r="G55" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="H55" s="10" t="s">
+      <c r="H55" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="J55" s="12" t="s">
+      <c r="J55" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="K55" s="10" t="s">
+      <c r="K55" s="9" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="56" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G56" s="12" t="s">
+      <c r="G56" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="H56" s="10" t="s">
+      <c r="H56" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="J56" s="12" t="s">
+      <c r="J56" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="K56" s="10" t="s">
+      <c r="K56" s="9" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="57" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G57" s="12" t="s">
+      <c r="G57" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="H57" s="10" t="s">
+      <c r="H57" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="J57" s="12" t="s">
+      <c r="J57" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="K57" s="10" t="s">
+      <c r="K57" s="9" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="58" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G58" s="12" t="s">
+      <c r="G58" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="H58" s="10" t="s">
+      <c r="H58" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="J58" s="12" t="s">
+      <c r="J58" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="K58" s="10" t="s">
+      <c r="K58" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="59" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G59" s="12" t="s">
+      <c r="G59" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="H59" s="10" t="s">
+      <c r="H59" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="J59" s="12" t="s">
+      <c r="J59" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="K59" s="10" t="s">
+      <c r="K59" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="60" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G60" s="12" t="s">
+      <c r="G60" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="H60" s="10" t="s">
+      <c r="H60" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="J60" s="12" t="s">
+      <c r="J60" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="K60" s="10" t="s">
+      <c r="K60" s="9" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="61" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G61" s="12" t="s">
+      <c r="G61" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="H61" s="10" t="s">
+      <c r="H61" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J61" s="12" t="s">
+      <c r="J61" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="K61" s="10" t="s">
+      <c r="K61" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="62" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G62" s="12" t="s">
+      <c r="G62" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="H62" s="10" t="s">
+      <c r="H62" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="J62" s="12" t="s">
+      <c r="J62" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="K62" s="10" t="s">
+      <c r="K62" s="9" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="63" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J63" s="12" t="s">
+      <c r="J63" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="K63" s="10" t="s">
+      <c r="K63" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="64" spans="7:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J64" s="12" t="s">
+      <c r="J64" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="K64" s="10" t="s">
+      <c r="K64" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="65" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J65" s="12" t="s">
+      <c r="J65" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="K65" s="10" t="s">
+      <c r="K65" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="66" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J66" s="12" t="s">
+      <c r="J66" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="K66" s="10" t="s">
+      <c r="K66" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="67" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J67" s="12" t="s">
+      <c r="J67" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="K67" s="10" t="s">
+      <c r="K67" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="68" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J68" s="12" t="s">
+      <c r="J68" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="K68" s="10" t="s">
+      <c r="K68" s="9" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="69" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J69" s="12" t="s">
+      <c r="J69" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="K69" s="10" t="s">
+      <c r="K69" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="70" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J70" s="12" t="s">
+      <c r="J70" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="K70" s="10" t="s">
+      <c r="K70" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="71" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J71" s="12" t="s">
+      <c r="J71" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="K71" s="10" t="s">
+      <c r="K71" s="9" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="72" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J72" s="12" t="s">
+      <c r="J72" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="K72" s="10" t="s">
+      <c r="K72" s="9" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="73" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J73" s="12" t="s">
+      <c r="J73" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="K73" s="10" t="s">
+      <c r="K73" s="9" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="74" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J74" s="12" t="s">
+      <c r="J74" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="K74" s="10" t="s">
+      <c r="K74" s="9" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="75" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J75" s="12" t="s">
+      <c r="J75" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="K75" s="10" t="s">
+      <c r="K75" s="9" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="76" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J76" s="12" t="s">
+      <c r="J76" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="K76" s="10" t="s">
+      <c r="K76" s="9" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="77" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J77" s="12" t="s">
+      <c r="J77" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="K77" s="10" t="s">
+      <c r="K77" s="9" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="78" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J78" s="12" t="s">
+      <c r="J78" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="K78" s="10" t="s">
+      <c r="K78" s="9" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="79" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J79" s="12" t="s">
+      <c r="J79" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="K79" s="10" t="s">
+      <c r="K79" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="80" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J80" s="12" t="s">
+      <c r="J80" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="K80" s="10" t="s">
+      <c r="K80" s="9" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="81" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J81" s="12" t="s">
+      <c r="J81" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="K81" s="10" t="s">
+      <c r="K81" s="9" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="82" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J82" s="12" t="s">
+      <c r="J82" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="K82" s="10" t="s">
+      <c r="K82" s="9" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="83" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J83" s="12" t="s">
+      <c r="J83" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="K83" s="10" t="s">
+      <c r="K83" s="9" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="84" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J84" s="12" t="s">
+      <c r="J84" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="K84" s="10" t="s">
+      <c r="K84" s="9" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="85" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J85" s="12" t="s">
+      <c r="J85" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="K85" s="10" t="s">
+      <c r="K85" s="9" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="86" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J86" s="12" t="s">
+      <c r="J86" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="K86" s="10" t="s">
+      <c r="K86" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="87" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J87" s="12" t="s">
+      <c r="J87" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="K87" s="10" t="s">
+      <c r="K87" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="88" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J88" s="12" t="s">
+      <c r="J88" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="K88" s="10" t="s">
+      <c r="K88" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="89" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J89" s="12" t="s">
+      <c r="J89" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="K89" s="10" t="s">
+      <c r="K89" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="90" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J90" s="12" t="s">
+      <c r="J90" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="K90" s="10" t="s">
+      <c r="K90" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="91" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J91" s="12" t="s">
+      <c r="J91" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="K91" s="10" t="s">
+      <c r="K91" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="92" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J92" s="12" t="s">
+      <c r="J92" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="K92" s="10" t="s">
+      <c r="K92" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="93" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J93" s="12" t="s">
+      <c r="J93" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="K93" s="10" t="s">
+      <c r="K93" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="94" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J94" s="12" t="s">
+      <c r="J94" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="K94" s="10" t="s">
+      <c r="K94" s="9" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="95" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J95" s="12" t="s">
+      <c r="J95" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="K95" s="10" t="s">
+      <c r="K95" s="9" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="96" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J96" s="12" t="s">
+      <c r="J96" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="K96" s="10" t="s">
+      <c r="K96" s="9" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="97" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J97" s="12" t="s">
+      <c r="J97" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="K97" s="10" t="s">
+      <c r="K97" s="9" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="98" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J98" s="12" t="s">
+      <c r="J98" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="K98" s="10" t="s">
+      <c r="K98" s="9" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="99" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J99" s="12" t="s">
+      <c r="J99" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="K99" s="10" t="s">
+      <c r="K99" s="9" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="100" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J100" s="12" t="s">
+      <c r="J100" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="K100" s="10" t="s">
+      <c r="K100" s="9" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="101" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J101" s="12" t="s">
+      <c r="J101" s="11" t="s">
         <v>263</v>
       </c>
     </row>
@@ -9117,691 +9337,691 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="12"/>
-    <col min="7" max="7" width="32.21875" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="12"/>
-    <col min="10" max="10" width="33.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="12"/>
-    <col min="13" max="13" width="7.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8" style="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.77734375" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.88671875" style="12"/>
-    <col min="17" max="17" width="7.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13" style="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.44140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.88671875" style="12"/>
-    <col min="22" max="22" width="7.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.88671875" style="12"/>
-    <col min="25" max="25" width="32.21875" style="12" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.44140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.88671875" style="12"/>
-    <col min="28" max="28" width="32.21875" style="12" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="21.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13" style="12" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.88671875" style="12"/>
-    <col min="32" max="32" width="7.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.77734375" style="12" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.88671875" style="12"/>
-    <col min="35" max="35" width="7.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8" style="12" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8.88671875" style="12"/>
-    <col min="38" max="38" width="7.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8" style="12" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="8.88671875" style="12"/>
-    <col min="41" max="41" width="7.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="21.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="13" style="12" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="8.88671875" style="12"/>
-    <col min="45" max="45" width="7.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="21.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="13" style="12" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="8.88671875" style="12"/>
-    <col min="49" max="49" width="7.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="21.88671875" style="12" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="13" style="12" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="8.88671875" style="12"/>
-    <col min="53" max="53" width="9.77734375" style="12" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="8" style="12" bestFit="1" customWidth="1"/>
-    <col min="55" max="16384" width="8.88671875" style="12"/>
+    <col min="1" max="1" width="33.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="11"/>
+    <col min="7" max="7" width="32.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="11"/>
+    <col min="10" max="10" width="33.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="11"/>
+    <col min="13" max="13" width="7.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" style="11"/>
+    <col min="17" max="17" width="7.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13" style="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.88671875" style="11"/>
+    <col min="22" max="22" width="7.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.88671875" style="11"/>
+    <col min="25" max="25" width="32.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.44140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.88671875" style="11"/>
+    <col min="28" max="28" width="32.21875" style="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13" style="11" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.88671875" style="11"/>
+    <col min="32" max="32" width="7.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.88671875" style="11"/>
+    <col min="35" max="35" width="7.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="8" style="11" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.88671875" style="11"/>
+    <col min="38" max="38" width="7.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8" style="11" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="8.88671875" style="11"/>
+    <col min="41" max="41" width="7.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="21.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="13" style="11" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="8.88671875" style="11"/>
+    <col min="45" max="45" width="7.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="21.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="13" style="11" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="8.88671875" style="11"/>
+    <col min="49" max="49" width="7.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="21.88671875" style="11" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13" style="11" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="8.88671875" style="11"/>
+    <col min="53" max="53" width="9.77734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="8" style="11" bestFit="1" customWidth="1"/>
+    <col min="55" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="18" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="18" t="s">
+      <c r="H1" s="17"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="K1" s="18"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="18" t="s">
+      <c r="K1" s="17"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="18" t="s">
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="18" t="s">
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="W1" s="18"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="19" t="s">
+      <c r="W1" s="17"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="18" t="s">
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="18" t="s">
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="AG1" s="18"/>
-      <c r="AH1" s="11"/>
-      <c r="AI1" s="18" t="s">
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="AJ1" s="18"/>
-      <c r="AK1" s="11"/>
-      <c r="AL1" s="18" t="s">
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="10"/>
+      <c r="AL1" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="AM1" s="18"/>
-      <c r="AN1" s="11"/>
-      <c r="AO1" s="18" t="s">
+      <c r="AM1" s="17"/>
+      <c r="AN1" s="10"/>
+      <c r="AO1" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="AP1" s="18"/>
-      <c r="AQ1" s="18"/>
-      <c r="AR1" s="11"/>
-      <c r="AS1" s="18" t="s">
+      <c r="AP1" s="17"/>
+      <c r="AQ1" s="17"/>
+      <c r="AR1" s="10"/>
+      <c r="AS1" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="AT1" s="18"/>
-      <c r="AU1" s="18"/>
-      <c r="AV1" s="11"/>
-      <c r="AW1" s="18" t="s">
+      <c r="AT1" s="17"/>
+      <c r="AU1" s="17"/>
+      <c r="AV1" s="10"/>
+      <c r="AW1" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="AX1" s="18"/>
-      <c r="AY1" s="18"/>
-      <c r="BA1" s="18" t="s">
+      <c r="AX1" s="17"/>
+      <c r="AY1" s="17"/>
+      <c r="BA1" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="BB1" s="18"/>
+      <c r="BB1" s="17"/>
     </row>
     <row r="2" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="10"/>
+      <c r="G2" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="7" t="s">
+      <c r="I2" s="10"/>
+      <c r="J2" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="9" t="s">
+      <c r="L2" s="10"/>
+      <c r="M2" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="8" t="s">
+      <c r="P2" s="10"/>
+      <c r="Q2" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="11"/>
-      <c r="V2" s="7" t="s">
+      <c r="U2" s="10"/>
+      <c r="V2" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="W2" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="8" t="s">
+      <c r="X2" s="10"/>
+      <c r="Y2" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="Z2" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="8" t="s">
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AC2" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AD2" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="8" t="s">
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="AG2" s="8" t="s">
+      <c r="AG2" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="8" t="s">
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="AJ2" s="8" t="s">
+      <c r="AJ2" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="AK2" s="11"/>
-      <c r="AL2" s="8" t="s">
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="AM2" s="8" t="s">
+      <c r="AM2" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="AN2" s="11"/>
-      <c r="AO2" s="8" t="s">
+      <c r="AN2" s="10"/>
+      <c r="AO2" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="AP2" s="8" t="s">
+      <c r="AP2" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="AQ2" s="8" t="s">
+      <c r="AQ2" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="AR2" s="11"/>
-      <c r="AS2" s="8" t="s">
+      <c r="AR2" s="10"/>
+      <c r="AS2" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="AT2" s="8" t="s">
+      <c r="AT2" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="AU2" s="8" t="s">
+      <c r="AU2" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="AV2" s="11"/>
-      <c r="AW2" s="8" t="s">
+      <c r="AV2" s="10"/>
+      <c r="AW2" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="AX2" s="8" t="s">
+      <c r="AX2" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="AY2" s="8" t="s">
+      <c r="AY2" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="BA2" s="7" t="s">
+      <c r="BA2" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="BB2" s="7" t="s">
+      <c r="BB2" s="6" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>0</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>18</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="Y3" s="12" t="s">
+      <c r="Y3" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="Z3" s="10" t="s">
+      <c r="Z3" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="AB3" s="12" t="s">
+      <c r="AB3" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="AC3" s="12">
+      <c r="AC3" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="11">
         <v>0</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>18</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="Y4" s="12" t="s">
+      <c r="Y4" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="Z4" s="10" t="s">
+      <c r="Z4" s="9" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>0</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>18</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="Y5" s="12" t="s">
+      <c r="Y5" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="Z5" s="10" t="s">
+      <c r="Z5" s="9" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>0</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>18</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <v>0</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>18</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>3</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>18</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="K9" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K12" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J13" s="12" t="s">
+      <c r="J13" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="K13" s="9" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="K14" s="9" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="K15" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:54" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="K16" s="10" t="s">
+      <c r="K16" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="17" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J17" s="12" t="s">
+      <c r="J17" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="K17" s="10" t="s">
+      <c r="K17" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="18" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J18" s="12" t="s">
+      <c r="J18" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="K18" s="10" t="s">
+      <c r="K18" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="19" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J19" s="12" t="s">
+      <c r="J19" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="K19" s="9" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="20" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J20" s="12" t="s">
+      <c r="J20" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="K20" s="10" t="s">
+      <c r="K20" s="9" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="21" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J21" s="12" t="s">
+      <c r="J21" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="K21" s="10" t="s">
+      <c r="K21" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J22" s="12" t="s">
+      <c r="J22" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="K22" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="23" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J23" s="12" t="s">
+      <c r="J23" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="K23" s="10" t="s">
+      <c r="K23" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="24" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J24" s="12" t="s">
+      <c r="J24" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="K24" s="10" t="s">
+      <c r="K24" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="25" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J25" s="12" t="s">
+      <c r="J25" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="K25" s="10" t="s">
+      <c r="K25" s="9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="26" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J26" s="12" t="s">
+      <c r="J26" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="K26" s="10" t="s">
+      <c r="K26" s="9" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="27" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J27" s="12" t="s">
+      <c r="J27" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="K27" s="10" t="s">
+      <c r="K27" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="28" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J28" s="12" t="s">
+      <c r="J28" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="K28" s="10" t="s">
+      <c r="K28" s="9" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="29" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J29" s="12" t="s">
+      <c r="J29" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="K29" s="10" t="s">
+      <c r="K29" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="30" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J30" s="12" t="s">
+      <c r="J30" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="K30" s="10" t="s">
+      <c r="K30" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="31" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J31" s="12" t="s">
+      <c r="J31" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="K31" s="10" t="s">
+      <c r="K31" s="9" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="32" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J32" s="12" t="s">
+      <c r="J32" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="K32" s="10" t="s">
+      <c r="K32" s="9" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="33" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J33" s="12" t="s">
+      <c r="J33" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="K33" s="10" t="s">
+      <c r="K33" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="34" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J34" s="12" t="s">
+      <c r="J34" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="K34" s="10" t="s">
+      <c r="K34" s="9" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="35" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J35" s="12" t="s">
+      <c r="J35" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="K35" s="10" t="s">
+      <c r="K35" s="9" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="36" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J36" s="12" t="s">
+      <c r="J36" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="K36" s="10" t="s">
+      <c r="K36" s="9" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="37" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J37" s="12" t="s">
+      <c r="J37" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="K37" s="10" t="s">
+      <c r="K37" s="9" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="38" spans="10:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J38" s="12" t="s">
+      <c r="J38" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="K38" s="10" t="s">
+      <c r="K38" s="9" t="s">
         <v>323</v>
       </c>
     </row>
